--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E21643-80D6-5B43-84CD-FAD6763C32D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14820" yWindow="1040" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>libraryDate</t>
   </si>
@@ -46,9 +52,6 @@
     <t>11.2.18</t>
   </si>
   <si>
-    <t>Retrofitted_3275</t>
-  </si>
-  <si>
     <t>sequence/run_3275_samples/Brent_3275_17-1_GTAC_1_NEB_Universal_TGAGGTT_AGATCTCG_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -146,13 +149,19 @@
   </si>
   <si>
     <t>sequence/run_3275_samples/Brent_3275_20-5_GTAC_5_SIC_Index2_07_ATCGAGC_GAGTTGAG_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +224,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -261,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +310,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +362,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,14 +555,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +584,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -543,18 +598,18 @@
         <v>3275</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -563,18 +618,18 @@
         <v>3275</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -583,18 +638,18 @@
         <v>3275</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -603,18 +658,18 @@
         <v>3275</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -623,18 +678,18 @@
         <v>3275</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -643,18 +698,18 @@
         <v>3275</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -663,18 +718,18 @@
         <v>3275</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -683,18 +738,18 @@
         <v>3275</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -703,18 +758,18 @@
         <v>3275</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -723,18 +778,18 @@
         <v>3275</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -743,18 +798,18 @@
         <v>3275</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -763,18 +818,18 @@
         <v>3275</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -783,18 +838,18 @@
         <v>3275</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -803,18 +858,18 @@
         <v>3275</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -823,18 +878,18 @@
         <v>3275</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -843,18 +898,18 @@
         <v>3275</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -863,18 +918,18 @@
         <v>3275</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -883,18 +938,18 @@
         <v>3275</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -903,18 +958,18 @@
         <v>3275</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -923,18 +978,18 @@
         <v>3275</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -943,18 +998,18 @@
         <v>3275</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -963,18 +1018,18 @@
         <v>3275</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -983,18 +1038,18 @@
         <v>3275</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1003,18 +1058,18 @@
         <v>3275</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1023,18 +1078,18 @@
         <v>3275</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1043,18 +1098,18 @@
         <v>3275</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1063,18 +1118,18 @@
         <v>3275</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1083,18 +1138,18 @@
         <v>3275</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1103,18 +1158,18 @@
         <v>3275</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1123,18 +1178,18 @@
         <v>3275</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1143,18 +1198,18 @@
         <v>3275</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1163,18 +1218,18 @@
         <v>3275</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1183,18 +1238,18 @@
         <v>3275</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1203,10 +1258,10 @@
         <v>3275</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E21643-80D6-5B43-84CD-FAD6763C32D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E9F6C-BB0B-804C-BDCF-2B15B6F59770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="1040" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="1040" windowWidth="16100" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>libraryDate</t>
   </si>
@@ -213,11 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,23 +645,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3275</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="2">
+        <v>3275</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>3275</v>
@@ -1221,7 +1222,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>3275</v>
@@ -1241,26 +1242,6 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>3275</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
         <v>42</v>
       </c>
     </row>

--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E21643-80D6-5B43-84CD-FAD6763C32D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8877C1-4769-A849-811C-A8959C24C4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="1040" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="1940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>libraryDate</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,13 +646,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>3275</v>
@@ -661,18 +661,18 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3275</v>
@@ -681,7 +681,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>43</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>3275</v>
@@ -701,7 +701,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>3275</v>
@@ -721,18 +721,18 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3275</v>
@@ -741,18 +741,18 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>3275</v>
@@ -761,18 +761,18 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>3275</v>
@@ -781,18 +781,18 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>3275</v>
@@ -801,18 +801,18 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>3275</v>
@@ -821,18 +821,18 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>3275</v>
@@ -841,18 +841,18 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>3275</v>
@@ -861,18 +861,18 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>3275</v>
@@ -881,18 +881,18 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>3275</v>
@@ -901,18 +901,18 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>3275</v>
@@ -921,18 +921,18 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>3275</v>
@@ -941,18 +941,18 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>3275</v>
@@ -961,18 +961,18 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>3275</v>
@@ -981,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3275</v>
@@ -1001,18 +1001,18 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>3275</v>
@@ -1021,7 +1021,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>43</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>3275</v>
@@ -1041,18 +1041,18 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>3275</v>
@@ -1061,18 +1061,18 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>3275</v>
@@ -1081,18 +1081,18 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>3275</v>
@@ -1101,18 +1101,18 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>3275</v>
@@ -1121,18 +1121,18 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>3275</v>
@@ -1141,18 +1141,18 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>3275</v>
@@ -1161,18 +1161,18 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>3275</v>
@@ -1181,18 +1181,18 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>3275</v>
@@ -1201,7 +1201,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>3275</v>
@@ -1221,7 +1221,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>3275</v>
@@ -1241,26 +1241,6 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>3275</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
         <v>42</v>
       </c>
     </row>

--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57942DE9-A73D-1949-9998-83081E6E469B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096924D2-4C43-974F-9B1C-94A4A79BD5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1040" windowWidth="29620" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="2840" windowWidth="29620" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>10.23.18</t>
   </si>
   <si>
-    <t>11.2.18</t>
-  </si>
-  <si>
     <t>sequence/run_3275_samples/Brent_3275_17-1_GTAC_1_NEB_Universal_TGAGGTT_AGATCTCG_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -154,7 +151,10 @@
     <t>H.BROWN</t>
   </si>
   <si>
-    <t>fullRNASEQ</t>
+    <t>11.02.18</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
   </si>
 </sst>
 </file>
@@ -559,10 +559,14 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E3" sqref="E3:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -589,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -601,7 +605,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -609,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -621,7 +625,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -641,7 +645,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -661,7 +665,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -669,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -681,7 +685,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -689,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -701,7 +705,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -721,15 +725,15 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -741,7 +745,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -761,7 +765,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -769,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -781,15 +785,15 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -801,7 +805,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -821,7 +825,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -841,7 +845,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -861,15 +865,15 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -881,7 +885,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -889,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -901,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -909,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -921,15 +925,15 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -941,7 +945,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -949,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -961,7 +965,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -981,7 +985,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -1001,15 +1005,15 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -1021,15 +1025,15 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -1041,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -1061,7 +1065,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -1081,15 +1085,15 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -1101,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -1121,7 +1125,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -1141,15 +1145,15 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1161,7 +1165,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1181,15 +1185,15 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -1201,15 +1205,15 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>33</v>
@@ -1221,15 +1225,15 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -1241,7 +1245,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FD48E-2206-C447-9076-37846403DE8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E20EEE-D1B1-3E42-A16E-D167F1AAF03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="58">
   <si>
     <t>libraryDate</t>
   </si>
@@ -182,25 +182,31 @@
   </si>
   <si>
     <t>Brent_3275_18-9_GTAC_9_SIC_Index2_010_CCGATTA_GCTTCTAG_S19_R1_001</t>
+  </si>
+  <si>
+    <t>Brent_3275_17-5_GTAC_5_NEB_Universal_ATCGAGC_AGATCTCG_S6_R1_001</t>
+  </si>
+  <si>
+    <t>Brent_3275_18-5_GTAC_5_SIC_Index2_010_ATCGAGC_GCTTCTAG_S15_R1_001</t>
+  </si>
+  <si>
+    <t>Brent_3275_20-4_GTAC_4_SIC_Index2_07_CACCTCC_GAGTTGAG_S34_R1_001</t>
+  </si>
+  <si>
+    <t>Brent_3275_18-3_GTAC_3_SIC_Index2_010_ATGACAG_GCTTCTAG_S13_R1_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -219,30 +225,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,37 +545,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1615,6 +1603,86 @@
       </c>
       <c r="F37" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>3275</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>3275</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>3275</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>3275</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3275.xlsx
+++ b/fastqFiles/fastq_3275.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="59">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Brent_3275_17-1_GTAC_1_NEB_Universal_TGAGGTT_AGATCTCG_S2_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.18.18</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t xml:space="preserve">Brent_3275_18-6_GTAC_6_SIC_Index2_010_TACTCTA_GCTTCTAG_S16_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[32,128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brent_3275_19-7_GTAC_62_SIC_Index2_09_GGGTCAA_TGTGAG_S26_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_3275_17-3_GTAC_3_NEB_Universal_ATGACAG_AGATCTCG_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,128]</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_3275_19-9_GTAC_64_SIC_Index2_09_TGATTAC_TGTGAG_S28_R1_001.fastq.gz</t>
@@ -288,12 +297,16 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X9" activeCellId="0" sqref="X9"/>
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="68.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="79.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,13 +360,13 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
@@ -368,18 +381,18 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -394,18 +407,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -420,18 +433,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -446,18 +459,18 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
@@ -472,18 +485,18 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -498,18 +511,18 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
@@ -524,16 +537,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -550,44 +563,44 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3275</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3275</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
@@ -602,16 +615,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>9</v>
       </c>
@@ -628,18 +641,18 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
@@ -654,18 +667,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>10</v>
@@ -680,18 +693,18 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>10</v>
@@ -706,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
@@ -732,18 +745,18 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
@@ -758,18 +771,18 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
@@ -784,16 +797,16 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>9</v>
       </c>
@@ -810,18 +823,18 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
@@ -836,18 +849,18 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>10</v>
@@ -862,18 +875,18 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>10</v>
@@ -888,18 +901,18 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>10</v>
@@ -914,16 +927,16 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>9</v>
       </c>
@@ -940,18 +953,18 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>10</v>
@@ -966,18 +979,18 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
@@ -992,13 +1005,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>128</v>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,18 +1031,18 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -1044,18 +1057,18 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -1070,18 +1083,18 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
@@ -1096,18 +1109,18 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>10</v>
@@ -1122,18 +1135,18 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="0" t="n">
-        <v>128</v>
+      <c r="I32" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>10</v>
@@ -1148,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -1159,7 +1172,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>10</v>
@@ -1174,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -1200,12 +1213,12 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -1220,12 +1233,12 @@
         <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -1240,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,12 +1273,12 @@
         <v>11</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -1280,12 +1293,12 @@
         <v>11</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -1300,12 +1313,12 @@
         <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -1320,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
